--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-linear-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.1484375</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8424724602203182</v>
+        <v>0.934516523867809</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4068543451652387</v>
+        <v>0.7177478580171358</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8930232558139535</v>
+        <v>0.9067183462532299</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.844702842377261</v>
+        <v>0.9162790697674418</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4457364341085271</v>
+        <v>0.786046511627907</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.0296875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1087719298245614</v>
+        <v>0.05170068027210885</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6865578675370597</v>
+        <v>0.8522616619067047</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-linear-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1484375</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2585034013605442</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.934516523867809</v>
+        <v>0.8620948379351741</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7177478580171358</v>
+        <v>0.9927971188475391</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9067183462532299</v>
+        <v>0.9861236802413273</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9162790697674418</v>
+        <v>0.6968325791855203</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.786046511627907</v>
+        <v>0.9285067873303168</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0296875</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05170068027210885</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8522616619067047</v>
+        <v>0.8932710007079756</v>
       </c>
     </row>
   </sheetData>
